--- a/GIT_Commands.xlsx
+++ b/GIT_Commands.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Commands</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>git commit -m "commit message"</t>
-  </si>
-  <si>
-    <t>Used to commit staged changes to local repository.</t>
   </si>
   <si>
     <t>Git commit takes the staged snapshot and commits it to the project history.</t>
@@ -199,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>git clone -b CI_MOCKUPS http://o-meghan@bitbucket:7990/scm/phoen/fhlbny-jhipster-sample-apps.git Workspace</t>
-  </si>
-  <si>
     <t>git pull origin master</t>
   </si>
   <si>
@@ -223,63 +217,82 @@
     <t>git merge UdemyPractice</t>
   </si>
   <si>
-    <t>git log</t>
-  </si>
-  <si>
-    <r>
-      <t>git reset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
+    <t>git remote rm org</t>
+  </si>
+  <si>
+    <t>git push -u origin UdemyPractice</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>git stash save "Not useful statsh"</t>
+  </si>
+  <si>
+    <t>git stash apply stash@{0}</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>rd .git /S/Q</t>
+  </si>
+  <si>
+    <t>remove all git related files inside the directory</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git clone -b CI_MOCKUPS http://@bitbucket:7990/scm/phoen/fhlbny-jhipster-sample-apps.git Workspace</t>
+  </si>
+  <si>
+    <t>git reset HEAD --</t>
+  </si>
+  <si>
+    <t>Moves all the tracked files to Untracked section</t>
+  </si>
+  <si>
+    <t>git reset --soft HEAD~1</t>
+  </si>
+  <si>
+    <t>Delete the most recent commit, keeping the work you've done</t>
+  </si>
+  <si>
+    <t>git reset --hard HEAD~1</t>
+  </si>
+  <si>
+    <r>
+      <t>Delete the most recent commit, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> --hard</t>
-    </r>
-  </si>
-  <si>
-    <t>git remote rm org</t>
-  </si>
-  <si>
-    <t>git push -u origin UdemyPractice</t>
-  </si>
-  <si>
-    <t>git diff</t>
-  </si>
-  <si>
-    <t>git stash list</t>
-  </si>
-  <si>
-    <t>git stash save "Not useful statsh"</t>
-  </si>
-  <si>
-    <t>git clean -n -d</t>
-  </si>
-  <si>
-    <t>git clean -f -d</t>
-  </si>
-  <si>
-    <t>git stash apply stash@{0}</t>
-  </si>
-  <si>
-    <t>git branch -D CodeEvaluation</t>
-  </si>
-  <si>
-    <t>git remote -v</t>
-  </si>
-  <si>
-    <t>rd .git /S/Q</t>
-  </si>
-  <si>
-    <t>remove all git related files inside the directory</t>
+      <t>destroying the work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> you've done</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,20 +314,20 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,7 +374,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,18 +407,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>170508</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152238</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4792980</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>41763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -406,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8001000"/>
-          <a:ext cx="7533333" cy="1295238"/>
+          <a:off x="0" y="7498080"/>
+          <a:ext cx="4792980" cy="773283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,16 +731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="110.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,206 +759,226 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" t="s">
         <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GIT_Commands.xlsx
+++ b/GIT_Commands.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Commands</t>
   </si>
@@ -287,6 +287,12 @@
       </rPr>
       <t> you've done</t>
     </r>
+  </si>
+  <si>
+    <t>git checkout -b UdemyPractice</t>
+  </si>
+  <si>
+    <t>git commit --amend --reset-author</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -380,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,13 +416,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4792980</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>41763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -731,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +768,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -770,214 +779,225 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="49" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
